--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.534999999999997</v>
+        <v>5.745499999999998</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.48780000000002</v>
+        <v>-21.28910000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,10 +516,10 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.587900000000004</v>
+        <v>4.729400000000005</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.22740000000001</v>
+        <v>-14.34740000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.87660000000001</v>
+        <v>-12.07020000000002</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.7767</v>
+        <v>-13.3423</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.52149999999998</v>
+        <v>-20.27449999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.34530000000002</v>
+        <v>-21.20250000000003</v>
       </c>
       <c r="B16" t="n">
-        <v>5.703299999999998</v>
+        <v>5.323200000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -723,7 +723,7 @@
         <v>11.21</v>
       </c>
       <c r="C17" t="n">
-        <v>-11.5486</v>
+        <v>-11.5807</v>
       </c>
       <c r="D17" t="n">
         <v>-6.63</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.09580000000001</v>
+        <v>-21.25220000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.0747</v>
+        <v>-11.2045</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.38170000000001</v>
+        <v>-21.18590000000001</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.46050000000003</v>
+        <v>-22.43030000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
